--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_4_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_4_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1317084.733146233</v>
+        <v>-1197870.518711125</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.31511171</v>
+        <v>6549343.963692139</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.87297296</v>
+        <v>340528.8729729603</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12231185.59481516</v>
+        <v>12290076.49598125</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>4.235841136991852</v>
+        <v>319.4665288825287</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.8201079258493</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092309</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>16.8201079258493</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>16.8201079258493</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>16.8201079258493</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>14.81515106108805</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.8201079258493</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>256.3439765284335</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.81515106108805</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>387.0919398873011</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -908,10 +908,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>231.3474543231441</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>175.5553483686609</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>231.3474543231441</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1038,10 +1038,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>122.0122044913013</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>163.1058707440497</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>87.40433487029996</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>231.3474543231441</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>231.3474543231441</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1148,10 +1148,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>13.49259327638034</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>273.1762997776721</v>
       </c>
       <c r="X8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1275,7 +1275,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>119.613219838866</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>239.2824454742741</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>58.11593919665221</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5025003789357</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8984462069432</v>
+        <v>78.599851993355</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8298520742618</v>
+        <v>381.1963375379286</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781754</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976323</v>
+        <v>272.1756420106385</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517069</v>
+        <v>49.86447466817692</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291327</v>
+        <v>98.3044940659195</v>
       </c>
       <c r="T11" t="n">
-        <v>182.4635748116829</v>
+        <v>184.3606488246891</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>218.8661164351643</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159572</v>
+        <v>310.7154087289634</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682624</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518101</v>
+        <v>361.0131934648163</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334701</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3018649291771</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8615943129738</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>122.2759278423984</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794368</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.55881504879645</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>33.19929546196372</v>
       </c>
       <c r="T13" t="n">
-        <v>199.632407232138</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784102</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>195.1000879758609</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452875</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179866</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789357</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069432</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249224</v>
+        <v>381.1963375379286</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651692</v>
+        <v>82.82156265158233</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.1756420106385</v>
       </c>
       <c r="I14" t="n">
-        <v>47.96740065517069</v>
+        <v>49.86447466817692</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.40742005291327</v>
+        <v>98.3044940659195</v>
       </c>
       <c r="T14" t="n">
-        <v>182.4635748116829</v>
+        <v>184.3606488246891</v>
       </c>
       <c r="U14" t="n">
-        <v>79.80915654697185</v>
+        <v>218.8661164351643</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159572</v>
+        <v>310.7154087289634</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682624</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518101</v>
+        <v>361.0131934648163</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334701</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.3018649291771</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8615943129738</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794368</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627851</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.03144490442264</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.79622075343369</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T16" t="n">
-        <v>199.632407232138</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U16" t="n">
-        <v>222.8733296205016</v>
+        <v>244.3463955914164</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6260432089464</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7581234452875</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X16" t="n">
-        <v>198.4395791179866</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648177</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768357</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048432</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252454</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228224</v>
       </c>
       <c r="G17" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630692</v>
       </c>
       <c r="H17" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955323</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364944</v>
+        <v>30.78476345307067</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139202</v>
+        <v>79.22478285081326</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201616</v>
+        <v>165.2809376095829</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200581</v>
       </c>
       <c r="V17" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138572</v>
       </c>
       <c r="W17" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531562</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497101</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183639</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270771</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108738</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787095</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791559</v>
+        <v>80.73941850040083</v>
       </c>
       <c r="F19" t="n">
-        <v>98.30140663806652</v>
+        <v>108.2813330274878</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014978</v>
+        <v>93.40789903957102</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426898</v>
+        <v>60.47910383369021</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.7365831489064</v>
+        <v>29.71650953832745</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358619</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406168</v>
+        <v>182.449770030038</v>
       </c>
       <c r="U19" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763102</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068464</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431875</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158866</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>167.784860022096</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648177</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768357</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048432</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252454</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228224</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630692</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955323</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345307067</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139203</v>
+        <v>79.22478285081326</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201617</v>
+        <v>165.2809376095829</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200581</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138572</v>
       </c>
       <c r="W20" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531562</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497101</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183639</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270771</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>90.82015023393808</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787096</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791561</v>
+        <v>104.5982253773368</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806654</v>
+        <v>108.2813330274878</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.4279726501498</v>
+        <v>93.40789903957102</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426899</v>
+        <v>60.47910383369021</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890623</v>
+        <v>29.71650953832745</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358619</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>182.449770030038</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763102</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068464</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431875</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158866</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>167.784860022096</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648177</v>
       </c>
       <c r="C23" t="n">
-        <v>341.3399367874147</v>
+        <v>351.3198631768357</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048432</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252454</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228224</v>
       </c>
       <c r="G23" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630692</v>
       </c>
       <c r="H23" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955323</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364946</v>
+        <v>30.78476345306884</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139203</v>
+        <v>79.22478285081326</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201617</v>
+        <v>165.2809376095829</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200581</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138572</v>
       </c>
       <c r="W23" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531562</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497101</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289427</v>
+        <v>342.2238247183639</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270771</v>
       </c>
       <c r="C25" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108738</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787096</v>
+        <v>103.1962166272922</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791561</v>
+        <v>104.5982253773368</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806654</v>
+        <v>29.89278233676359</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606851</v>
       </c>
       <c r="H25" t="n">
-        <v>83.4279726501498</v>
+        <v>93.40789903957102</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426899</v>
+        <v>60.47910383369021</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890623</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>119.8444424464407</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>172.4698436406168</v>
+        <v>182.449770030038</v>
       </c>
       <c r="U25" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763102</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068464</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431875</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158866</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8049336326748</v>
+        <v>167.784860022096</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.1885574966861</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>109.5861815800717</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
@@ -2950,7 +2950,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
@@ -2962,13 +2962,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4.115920313775714</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>26.88787235332685</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>341.3399367874144</v>
@@ -3035,7 +3035,7 @@
         <v>335.7358826154219</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>355.8131353878902</v>
       </c>
       <c r="F32" t="n">
         <v>352.1366999334012</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139203</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>155.3010112201617</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3740,25 +3740,25 @@
         <v>341.4355598753965</v>
       </c>
       <c r="C41" t="n">
-        <v>341.3399367874144</v>
+        <v>341.3399367874145</v>
       </c>
       <c r="D41" t="n">
-        <v>335.7358826154219</v>
+        <v>335.735882615422</v>
       </c>
       <c r="E41" t="n">
-        <v>345.5134053358241</v>
+        <v>345.5134053358242</v>
       </c>
       <c r="F41" t="n">
         <v>352.1366999334012</v>
       </c>
       <c r="G41" t="n">
-        <v>339.957593273648</v>
+        <v>339.9575932736481</v>
       </c>
       <c r="H41" t="n">
         <v>243.1160044061111</v>
       </c>
       <c r="I41" t="n">
-        <v>20.80483706364944</v>
+        <v>20.8048370636495</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.24485646139202</v>
+        <v>69.24485646139208</v>
       </c>
       <c r="T41" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U41" t="n">
         <v>189.8064788306369</v>
       </c>
       <c r="V41" t="n">
-        <v>281.655771124436</v>
+        <v>281.6557711244361</v>
       </c>
       <c r="W41" t="n">
-        <v>315.239289863735</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X41" t="n">
         <v>331.9535558602889</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C43" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D43" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787101</v>
       </c>
       <c r="E43" t="n">
-        <v>94.61829898791559</v>
+        <v>94.61829898791565</v>
       </c>
       <c r="F43" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806658</v>
       </c>
       <c r="G43" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H43" t="n">
-        <v>83.42797265014978</v>
+        <v>83.42797265014984</v>
       </c>
       <c r="I43" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426904</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890628</v>
       </c>
       <c r="S43" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464408</v>
       </c>
       <c r="T43" t="n">
         <v>172.4698436406168</v>
@@ -3958,13 +3958,13 @@
         <v>206.4634796174252</v>
       </c>
       <c r="W43" t="n">
-        <v>211.5955598537662</v>
+        <v>211.5955598537663</v>
       </c>
       <c r="X43" t="n">
-        <v>171.2770155264653</v>
+        <v>171.2770155264654</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.8049336326748</v>
+        <v>157.8049336326749</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.83102066230052</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C2" t="n">
-        <v>33.74683401597471</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D2" t="n">
-        <v>33.32330814943931</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E2" t="n">
-        <v>23.02349670674008</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F2" t="n">
-        <v>6.033488700831693</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>1.345608634067944</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>17.99751548065875</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>17.99751548065875</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>17.99751548065875</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>17.99751548065875</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>33.97661801021559</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>50.62852485680639</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>67.2804317033972</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>67.2804317033972</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>67.2804317033972</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X2" t="n">
-        <v>63.00180429229432</v>
+        <v>1381.800517097565</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.01179628638593</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.33561663997633</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>18.33561663997633</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>18.33561663997633</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>18.33561663997633</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>18.33561663997633</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>18.33561663997633</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>18.33561663997633</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>17.32471116362478</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>17.32471116362478</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>17.32471116362478</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>17.32471116362478</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N3" t="n">
-        <v>17.32471116362478</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O3" t="n">
-        <v>17.32471116362478</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>33.97661801021559</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.62852485680639</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>50.29042369748881</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>33.30041569158043</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>33.30041569158043</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>18.33561663997633</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>18.33561663997633</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>18.33561663997633</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.33561663997633</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.32562464588472</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="C4" t="n">
-        <v>35.32562464588472</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="D4" t="n">
-        <v>35.32562464588472</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="E4" t="n">
-        <v>35.32562464588472</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F4" t="n">
-        <v>35.32562464588472</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
-        <v>35.32562464588472</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>18.33561663997633</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>15.42815803927846</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>32.08006488586927</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>33.97661801021559</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>50.62852485680639</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>50.62852485680639</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>67.2804317033972</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>67.2804317033972</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>67.2804317033972</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>67.2804317033972</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>67.2804317033972</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V4" t="n">
-        <v>67.2804317033972</v>
+        <v>1212.005518865373</v>
       </c>
       <c r="W4" t="n">
-        <v>67.2804317033972</v>
+        <v>953.0722092406932</v>
       </c>
       <c r="X4" t="n">
-        <v>67.2804317033972</v>
+        <v>714.7283471003766</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.3156326517931</v>
+        <v>489.9926484891412</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>463.3182603192447</v>
+        <v>465.1682704936311</v>
       </c>
       <c r="C5" t="n">
-        <v>457.2340736729189</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D5" t="n">
-        <v>456.8105478063835</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>446.5107363636843</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>429.5207283577759</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>195.8364310616707</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>247.5417761257642</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>247.5417761257642</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>247.5417761257642</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>247.5417761257642</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>247.5417761257642</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>476.5757559056769</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>655.799191823099</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>884.8331716030117</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925765</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>925.3898172925765</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>703.1833332394353</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>703.1833332394353</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>469.4990359433301</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>469.4990359433301</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X5" t="n">
-        <v>469.4990359433301</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y5" t="n">
-        <v>469.4990359433301</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.50779634585153</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>18.50779634585153</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>18.50779634585153</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>18.50779634585153</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>18.50779634585153</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>18.50779634585153</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>18.50779634585153</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>211.3206539084848</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>211.3206539084848</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>211.3206539084848</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M6" t="n">
-        <v>440.3546336883974</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N6" t="n">
-        <v>467.3218577327511</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>696.3558375126638</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>925.3898172925765</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>925.3898172925765</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925765</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>925.3898172925765</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>766.0479534795847</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>568.6971426178035</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>354.9856156108373</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>141.752447347166</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>18.50779634585153</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.50779634585153</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.4612974360688</v>
+        <v>367.429305553252</v>
       </c>
       <c r="C7" t="n">
-        <v>284.4612974360688</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="D7" t="n">
-        <v>284.4612974360688</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E7" t="n">
-        <v>284.4612974360688</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>284.4612974360688</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>284.4612974360688</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>134.8538422415254</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>18.50779634585153</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>18.50779634585153</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>18.50779634585153</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>18.50779634585153</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>247.5417761257642</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>476.5757559056769</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>705.6097356855896</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>911.285175935202</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925765</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>840.1170989679762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>840.1170989679762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>751.8298920282792</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>518.145594732174</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>284.4612974360688</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>284.4612974360688</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>284.4612974360688</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>284.4612974360688</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.6782791885306</v>
+        <v>795.1993990705207</v>
       </c>
       <c r="C8" t="n">
-        <v>163.5940925422048</v>
+        <v>789.1152124241949</v>
       </c>
       <c r="D8" t="n">
-        <v>163.1705666756694</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E8" t="n">
-        <v>152.8707552329702</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F8" t="n">
-        <v>135.8807472270618</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G8" t="n">
-        <v>131.1928671602981</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>417.4634743327321</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M8" t="n">
-        <v>417.4634743327321</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>426.3909626105813</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>812.642214563296</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1303.550627260378</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>953.7130725968584</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W8" t="n">
-        <v>569.952771732027</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="X8" t="n">
-        <v>175.859054812616</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.859054812616</v>
+        <v>1205.42057873501</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.4473226030276</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>222.4522513519733</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>222.4522513519733</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>101.9594353443013</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>101.9594353443013</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>101.9594353443013</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>438.2641504114549</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>824.5154023641696</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M9" t="n">
-        <v>824.5154023641696</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N9" t="n">
-        <v>824.5154023641696</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O9" t="n">
-        <v>1210.766654316884</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>656.1523148747842</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>496.7503552386142</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1004.20002678548</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>833.1066543471966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>673.6120096701065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>512.7011945384261</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0700686490173</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>180.8196775745607</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1475.338400676267</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1475.338400676267</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U10" t="n">
-        <v>1475.338400676267</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>1475.338400676267</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>1475.338400676267</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>1416.63543179076</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>1191.899733179524</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2080.61959478763</v>
+        <v>2000.425999658413</v>
       </c>
       <c r="C11" t="n">
-        <v>1708.394846930119</v>
+        <v>1626.285015424129</v>
       </c>
       <c r="D11" t="n">
-        <v>1341.830759852399</v>
+        <v>1546.891225531851</v>
       </c>
       <c r="E11" t="n">
-        <v>965.3903871985144</v>
+        <v>1168.534616501192</v>
       </c>
       <c r="F11" t="n">
-        <v>774.6531628810781</v>
+        <v>783.4878109073251</v>
       </c>
       <c r="G11" t="n">
-        <v>403.8247216031294</v>
+        <v>410.7431332526023</v>
       </c>
       <c r="H11" t="n">
-        <v>130.8160670600664</v>
+        <v>135.8182423327654</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J11" t="n">
-        <v>336.549618674113</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K11" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L11" t="n">
-        <v>1587.300519595391</v>
+        <v>1208.499490662695</v>
       </c>
       <c r="M11" t="n">
-        <v>2363.619110587144</v>
+        <v>1984.818081654449</v>
       </c>
       <c r="N11" t="n">
-        <v>2583.702153496821</v>
+        <v>2737.999098293067</v>
       </c>
       <c r="O11" t="n">
-        <v>3227.333009913926</v>
+        <v>3381.629954710172</v>
       </c>
       <c r="P11" t="n">
-        <v>3756.489707833077</v>
+        <v>3910.786652629323</v>
       </c>
       <c r="Q11" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424615</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="S11" t="n">
-        <v>4020.826127941254</v>
+        <v>4173.206836360726</v>
       </c>
       <c r="T11" t="n">
-        <v>3836.519486717332</v>
+        <v>3986.98395876003</v>
       </c>
       <c r="U11" t="n">
-        <v>3836.519486717332</v>
+        <v>3765.907073471985</v>
       </c>
       <c r="V11" t="n">
-        <v>3524.581774883032</v>
+        <v>3452.053125260911</v>
       </c>
       <c r="W11" t="n">
-        <v>3178.72131684742</v>
+        <v>3104.276430848525</v>
       </c>
       <c r="X11" t="n">
-        <v>2815.977761845591</v>
+        <v>2739.616639469923</v>
       </c>
       <c r="Y11" t="n">
-        <v>2452.9409316229</v>
+        <v>2374.663572870458</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820434</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J12" t="n">
-        <v>275.1770047689919</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="K12" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302155</v>
       </c>
       <c r="L12" t="n">
-        <v>1217.302985884345</v>
+        <v>1078.137726722906</v>
       </c>
       <c r="M12" t="n">
-        <v>1217.302985884345</v>
+        <v>1078.137726722906</v>
       </c>
       <c r="N12" t="n">
-        <v>1217.302985884345</v>
+        <v>1078.137726722906</v>
       </c>
       <c r="O12" t="n">
-        <v>1217.302985884345</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="P12" t="n">
-        <v>1779.008878372875</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338.5686491178846</v>
+        <v>787.788925250466</v>
       </c>
       <c r="C13" t="n">
-        <v>205.3751195088201</v>
+        <v>787.788925250466</v>
       </c>
       <c r="D13" t="n">
-        <v>205.3751195088201</v>
+        <v>664.2778870258211</v>
       </c>
       <c r="E13" t="n">
-        <v>82.36414720635868</v>
+        <v>539.3506783465857</v>
       </c>
       <c r="F13" t="n">
-        <v>82.36414720635868</v>
+        <v>410.7031589096221</v>
       </c>
       <c r="G13" t="n">
-        <v>82.36414720635868</v>
+        <v>279.4363742876106</v>
       </c>
       <c r="H13" t="n">
-        <v>82.36414720635868</v>
+        <v>165.8125255455124</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684868</v>
+        <v>134.8001681915356</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476427</v>
+        <v>324.6200285978151</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846211</v>
+        <v>619.7846615619171</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820319</v>
+        <v>944.3162506864519</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.7271432332</v>
+        <v>1260.422565764744</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195466</v>
       </c>
       <c r="R13" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195466</v>
       </c>
       <c r="S13" t="n">
-        <v>1760.436206191679</v>
+        <v>1863.454602314694</v>
       </c>
       <c r="T13" t="n">
-        <v>1558.7873099976</v>
+        <v>1659.889469743841</v>
       </c>
       <c r="U13" t="n">
-        <v>1313.889005372944</v>
+        <v>1659.889469743841</v>
       </c>
       <c r="V13" t="n">
-        <v>1116.81820943773</v>
+        <v>1421.987331135808</v>
       </c>
       <c r="W13" t="n">
-        <v>875.6483877758237</v>
+        <v>1178.901273097128</v>
       </c>
       <c r="X13" t="n">
-        <v>675.2043684647261</v>
+        <v>976.5410174092563</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.3685126827099</v>
+        <v>787.788925250466</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2000.004285144224</v>
+        <v>2000.425999658413</v>
       </c>
       <c r="C14" t="n">
-        <v>1627.779537286714</v>
+        <v>1626.285015424129</v>
       </c>
       <c r="D14" t="n">
-        <v>1261.215450208993</v>
+        <v>1257.804691969634</v>
       </c>
       <c r="E14" t="n">
-        <v>884.775077555109</v>
+        <v>879.4480829389763</v>
       </c>
       <c r="F14" t="n">
-        <v>501.6445083380154</v>
+        <v>494.401277345109</v>
       </c>
       <c r="G14" t="n">
-        <v>130.8160670600664</v>
+        <v>410.7431332526023</v>
       </c>
       <c r="H14" t="n">
-        <v>130.8160670600664</v>
+        <v>135.8182423327654</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J14" t="n">
-        <v>336.549618674113</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K14" t="n">
-        <v>874.7091197831526</v>
+        <v>495.9080908504568</v>
       </c>
       <c r="L14" t="n">
-        <v>1587.300519595391</v>
+        <v>1208.499490662695</v>
       </c>
       <c r="M14" t="n">
-        <v>2363.619110587144</v>
+        <v>1984.818081654449</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.800127225762</v>
+        <v>2737.999098293067</v>
       </c>
       <c r="O14" t="n">
-        <v>3760.430983642867</v>
+        <v>3381.629954710172</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.207360317934</v>
+        <v>3910.786652629323</v>
       </c>
       <c r="Q14" t="n">
-        <v>4118.207360317934</v>
+        <v>4231.947659424615</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="S14" t="n">
-        <v>4020.826127941254</v>
+        <v>4173.206836360726</v>
       </c>
       <c r="T14" t="n">
-        <v>3836.519486717332</v>
+        <v>3986.98395876003</v>
       </c>
       <c r="U14" t="n">
-        <v>3755.904177073926</v>
+        <v>3765.907073471985</v>
       </c>
       <c r="V14" t="n">
-        <v>3443.966465239626</v>
+        <v>3452.053125260911</v>
       </c>
       <c r="W14" t="n">
-        <v>3098.106007204014</v>
+        <v>3104.276430848525</v>
       </c>
       <c r="X14" t="n">
-        <v>2735.362452202186</v>
+        <v>2739.616639469923</v>
       </c>
       <c r="Y14" t="n">
-        <v>2372.325621979495</v>
+        <v>2374.663572870458</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820434</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J15" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="K15" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="L15" t="n">
-        <v>730.9832610342906</v>
+        <v>1202.34451428687</v>
       </c>
       <c r="M15" t="n">
-        <v>730.9832610342906</v>
+        <v>1427.982191406889</v>
       </c>
       <c r="N15" t="n">
-        <v>1604.641353145908</v>
+        <v>1427.982191406889</v>
       </c>
       <c r="O15" t="n">
-        <v>1604.641353145908</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="P15" t="n">
-        <v>1749.449359010245</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="Q15" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>467.919197363122</v>
+        <v>374.8117525900066</v>
       </c>
       <c r="C16" t="n">
-        <v>334.7256677540577</v>
+        <v>239.7019866041682</v>
       </c>
       <c r="D16" t="n">
-        <v>334.7256677540577</v>
+        <v>239.7019866041682</v>
       </c>
       <c r="E16" t="n">
-        <v>211.7146954515962</v>
+        <v>114.7747779249327</v>
       </c>
       <c r="F16" t="n">
-        <v>211.7146954515962</v>
+        <v>114.7747779249327</v>
       </c>
       <c r="G16" t="n">
-        <v>82.36414720635868</v>
+        <v>114.7747779249327</v>
       </c>
       <c r="H16" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684869</v>
+        <v>134.8001681915357</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476425</v>
+        <v>324.6200285978152</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846206</v>
+        <v>619.7846615619171</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820316</v>
+        <v>944.3162506864518</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.7271432332</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.92813148255</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="S16" t="n">
-        <v>1908.92813148255</v>
+        <v>1697.291970655665</v>
       </c>
       <c r="T16" t="n">
-        <v>1707.279235288471</v>
+        <v>1493.726838084813</v>
       </c>
       <c r="U16" t="n">
-        <v>1482.154659914227</v>
+        <v>1246.912297083382</v>
       </c>
       <c r="V16" t="n">
-        <v>1246.168757682968</v>
+        <v>1009.010158475349</v>
       </c>
       <c r="W16" t="n">
-        <v>1004.998936021061</v>
+        <v>765.9241004366684</v>
       </c>
       <c r="X16" t="n">
-        <v>804.5549167099635</v>
+        <v>563.5638447487968</v>
       </c>
       <c r="Y16" t="n">
-        <v>617.7190609279473</v>
+        <v>374.8117525900066</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224929</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561458</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.529047677779</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188924</v>
+        <v>725.6705041948819</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616723</v>
+        <v>372.1982621109735</v>
       </c>
       <c r="H17" t="n">
-        <v>103.3791341393379</v>
+        <v>116.545806761951</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J17" t="n">
-        <v>82.36414720635868</v>
+        <v>319.4662422262742</v>
       </c>
       <c r="K17" t="n">
-        <v>620.5236483153982</v>
+        <v>857.6257433353137</v>
       </c>
       <c r="L17" t="n">
-        <v>1333.115048127636</v>
+        <v>1570.217143147552</v>
       </c>
       <c r="M17" t="n">
-        <v>2109.43363911939</v>
+        <v>2346.535734139306</v>
       </c>
       <c r="N17" t="n">
-        <v>2624.258799186386</v>
+        <v>3099.716750777924</v>
       </c>
       <c r="O17" t="n">
-        <v>3267.889655603491</v>
+        <v>3743.347607195029</v>
       </c>
       <c r="P17" t="n">
-        <v>3797.046353522642</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="Q17" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.47927193154</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901659</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184428</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544168</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702597</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.251252894809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.570621866158</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820434</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J18" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="K18" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="L18" t="n">
-        <v>730.9832610342906</v>
+        <v>1202.34451428687</v>
       </c>
       <c r="M18" t="n">
-        <v>1573.960341728857</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.960341728857</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="O18" t="n">
-        <v>1573.960341728857</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P18" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q18" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578618</v>
+        <v>547.6588856093783</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695259</v>
+        <v>431.8215551943541</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423836</v>
+        <v>431.8215551943541</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606508</v>
+        <v>350.2665870121311</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211896</v>
+        <v>240.8915031459818</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966807</v>
+        <v>240.8915031459818</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520849</v>
+        <v>146.540089974698</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944907</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037253</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707825</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717766</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182602</v>
+        <v>1886.948154620936</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909252</v>
+        <v>1702.655457620897</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.113352190281</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894793</v>
+        <v>1256.483649153062</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153615</v>
+        <v>1032.670026685196</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632463</v>
+        <v>849.5822065681389</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019586</v>
+        <v>680.1025499801631</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242188</v>
+        <v>2154.60548422493</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561459</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.529047677778</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188926</v>
+        <v>725.6705041948816</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616724</v>
+        <v>372.1982621109732</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>116.545806761951</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J20" t="n">
-        <v>332.6083428643229</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K20" t="n">
-        <v>870.7678439733625</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L20" t="n">
-        <v>1583.3592437856</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M20" t="n">
-        <v>2359.677834777354</v>
+        <v>2366.705049483069</v>
       </c>
       <c r="N20" t="n">
-        <v>3112.858851415972</v>
+        <v>3119.886066121687</v>
       </c>
       <c r="O20" t="n">
-        <v>3756.489707833077</v>
+        <v>3422.186600399737</v>
       </c>
       <c r="P20" t="n">
-        <v>3756.489707833077</v>
+        <v>3951.343298318888</v>
       </c>
       <c r="Q20" t="n">
-        <v>4077.650714628369</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861983</v>
+        <v>4192.479271931541</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.39335255879</v>
+        <v>4025.52882990166</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.72438018443</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654676</v>
+        <v>3529.14286754417</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539792</v>
+        <v>3200.638608702599</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.25125289481</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.83881315673</v>
+        <v>2509.57062186616</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820434</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="K21" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302155</v>
       </c>
       <c r="L21" t="n">
-        <v>1392.071432953579</v>
+        <v>734.0691999302155</v>
       </c>
       <c r="M21" t="n">
-        <v>1392.071432953579</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="N21" t="n">
-        <v>1392.071432953579</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="O21" t="n">
-        <v>1392.071432953579</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P21" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q21" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578621</v>
+        <v>547.6588856093786</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695262</v>
+        <v>455.9213601205522</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423836</v>
+        <v>455.9213601205522</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606508</v>
+        <v>350.2665870121311</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211897</v>
+        <v>240.8915031459818</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966807</v>
+        <v>240.8915031459818</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3734173520849</v>
+        <v>146.540089974698</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944908</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037255</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707828</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098273</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.86713627952</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019107</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717766</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182603</v>
+        <v>1886.948154620936</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1702.655457620897</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.113352190281</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1256.483649153062</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1032.670026685196</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632465</v>
+        <v>849.5822065681391</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019588</v>
+        <v>680.1025499801634</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224927</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561457</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.529047677777</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217933</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188926</v>
+        <v>725.67050419488</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616724</v>
+        <v>372.1982621109717</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619491</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J23" t="n">
-        <v>336.549618674113</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K23" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L23" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M23" t="n">
-        <v>1830.521136858203</v>
+        <v>2346.535734139306</v>
       </c>
       <c r="N23" t="n">
-        <v>2583.702153496821</v>
+        <v>3099.716750777924</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.333009913926</v>
+        <v>3743.347607195029</v>
       </c>
       <c r="P23" t="n">
-        <v>3756.489707833077</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="Q23" t="n">
-        <v>4077.650714628369</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.50430511418</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.47927193154</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901658</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184428</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544168</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702596</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.251252894808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.570621866157</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820434</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="K24" t="n">
-        <v>82.36414720635868</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="L24" t="n">
-        <v>82.36414720635868</v>
+        <v>1202.34451428687</v>
       </c>
       <c r="M24" t="n">
-        <v>82.36414720635868</v>
+        <v>1202.34451428687</v>
       </c>
       <c r="N24" t="n">
-        <v>863.1903600224343</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="O24" t="n">
-        <v>1567.147450568329</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P24" t="n">
-        <v>2128.853343056859</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578622</v>
+        <v>708.8112880075496</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695263</v>
+        <v>592.9739575925256</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423839</v>
+        <v>488.7353549386951</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606509</v>
+        <v>383.080581830274</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211897</v>
+        <v>352.8858521971789</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>240.8915031459818</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>146.5400899746979</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228361</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944907</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037253</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514387</v>
+        <v>676.4514038707825</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250228</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412364</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019107</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>2048.100557019107</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>2048.100557019107</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909253</v>
+        <v>1863.807860019069</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>1636.265754588452</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894794</v>
+        <v>1417.636051551234</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>1193.822429083368</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632466</v>
+        <v>1010.73460896631</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019589</v>
+        <v>841.2549523783346</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764623</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6251,7 +6251,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
         <v>4364.291146941468</v>
@@ -6266,10 +6266,10 @@
         <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6309,7 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
         <v>1198.623017005979</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>228.0779127453467</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C28" t="n">
-        <v>228.0779127453467</v>
+        <v>197.4745638488916</v>
       </c>
       <c r="D28" t="n">
-        <v>228.0779127453467</v>
+        <v>197.4745638488916</v>
       </c>
       <c r="E28" t="n">
-        <v>228.0779127453467</v>
+        <v>197.4745638488916</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>197.4745638488916</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>197.4745638488916</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6388,7 +6388,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
         <v>927.8555407749236</v>
@@ -6409,25 +6409,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1745.581100076927</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1535.829271888314</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1282.828035269122</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>1038.739201043329</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W28" t="n">
-        <v>789.4664473868885</v>
+        <v>900.1595600940317</v>
       </c>
       <c r="X28" t="n">
-        <v>580.9194960812567</v>
+        <v>691.6126087883999</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.9807083047062</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489455</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6491,7 +6491,7 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035664</v>
@@ -6500,13 +6500,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>1198.623017005979</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
         <v>1198.623017005979</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.8895508847476</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C31" t="n">
-        <v>488.8895508847476</v>
+        <v>832.7027105453668</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1918170423424</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E31" t="n">
-        <v>228.0779127453468</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6622,16 +6622,16 @@
         <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362207</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.387532025356</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
         <v>1526.662838113797</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1796.640910027714</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U31" t="n">
-        <v>1543.639673408523</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V31" t="n">
-        <v>1299.55083918273</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="W31" t="n">
-        <v>1050.278085526289</v>
+        <v>1354.000222508438</v>
       </c>
       <c r="X31" t="n">
-        <v>841.7311342206577</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y31" t="n">
-        <v>646.7923464441072</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1757.449912519029</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1418.322758362037</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415258</v>
+        <v>1058.915550899522</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188929</v>
+        <v>703.2219146031567</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616723</v>
+        <v>359.8304062459365</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>114.2586846236021</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>336.549618674113</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>874.7091197831526</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
-        <v>1587.300519595391</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>2363.619110587144</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>3116.800127225762</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3756.489707833077</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>3756.489707833077</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4077.650714628369</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861982</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568246</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458691</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>82.36414720635868</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>82.36414720635868</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M33" t="n">
-        <v>925.3412279009253</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>925.3412279009253</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1567.147450568329</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2128.853343056859</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2128.853343056859</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578621</v>
+        <v>725.220117742126</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695262</v>
+        <v>619.4635210537903</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423836</v>
+        <v>525.3056521266479</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606507</v>
+        <v>429.731612744915</v>
       </c>
       <c r="F34" t="n">
-        <v>319.5577121211895</v>
+        <v>330.4372626054538</v>
       </c>
       <c r="G34" t="n">
-        <v>217.6440967966807</v>
+        <v>228.5236472809448</v>
       </c>
       <c r="H34" t="n">
-        <v>133.373417352085</v>
+        <v>144.2529678363491</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240929</v>
+        <v>171.3628210083567</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588545</v>
+        <v>389.9517226431184</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514388</v>
+        <v>713.8853968357025</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704456</v>
+        <v>1067.186027188719</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.18183301123</v>
+        <v>1412.061383495494</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250228</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412364</v>
+        <v>2005.370581896627</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611662</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037009</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182603</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909253</v>
+        <v>1819.732287393516</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894794</v>
+        <v>1393.721946379057</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153616</v>
+        <v>1179.98905763788</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632465</v>
+        <v>1006.981971247511</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019588</v>
+        <v>847.5830483862228</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K35" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M35" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N35" t="n">
-        <v>2583.702153496821</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O35" t="n">
         <v>3227.333009913926</v>
@@ -6968,7 +6968,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V35" t="n">
         <v>3415.168857654675</v>
@@ -6977,7 +6977,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X35" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y35" t="n">
         <v>2425.838813156729</v>
@@ -7017,25 +7017,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K36" t="n">
-        <v>82.36414720635868</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L36" t="n">
-        <v>743.4523191256469</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="M36" t="n">
-        <v>743.4523191256469</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N36" t="n">
-        <v>1424.896252510964</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O36" t="n">
-        <v>2128.853343056859</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P36" t="n">
-        <v>2128.853343056859</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q36" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R36" t="n">
         <v>2128.853343056859</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578623</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695265</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423841</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606511</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G37" t="n">
         <v>217.6440967966807</v>
@@ -7099,25 +7099,25 @@
         <v>379.0721721588545</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M37" t="n">
         <v>1056.306476704456</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O37" t="n">
         <v>1724.779017250227</v>
       </c>
       <c r="P37" t="n">
-        <v>1994.491031412363</v>
+        <v>1994.491031412364</v>
       </c>
       <c r="Q37" t="n">
         <v>2124.055635127398</v>
       </c>
       <c r="R37" t="n">
-        <v>2104.119692552745</v>
+        <v>2104.119692552746</v>
       </c>
       <c r="S37" t="n">
         <v>1983.064700182603</v>
@@ -7126,7 +7126,7 @@
         <v>1808.852736909253</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.391365205324</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V37" t="n">
         <v>1382.842395894794</v>
@@ -7135,10 +7135,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632465</v>
+        <v>996.102420763247</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019593</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1048.036000415258</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188928</v>
+        <v>692.3423641188929</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616725</v>
+        <v>348.9508557616726</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7172,22 +7172,22 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J38" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K38" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M38" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.702153496821</v>
+        <v>3112.858851415972</v>
       </c>
       <c r="O38" t="n">
-        <v>3227.333009913926</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="P38" t="n">
         <v>3756.489707833077</v>
@@ -7205,7 +7205,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U38" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V38" t="n">
         <v>3415.168857654675</v>
@@ -7251,25 +7251,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J39" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K39" t="n">
-        <v>82.36414720635868</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L39" t="n">
-        <v>581.9191718163977</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="M39" t="n">
-        <v>1424.896252510964</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="N39" t="n">
-        <v>1424.896252510964</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="O39" t="n">
-        <v>2128.853343056859</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="P39" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q39" t="n">
         <v>2128.853343056859</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578618</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I40" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240926</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588543</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514383</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M40" t="n">
         <v>1056.306476704455</v>
@@ -7391,67 +7391,67 @@
         <v>1736.166594305405</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E41" t="n">
         <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.342364118893</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3791341393379</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I41" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J41" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K41" t="n">
-        <v>341.6111460542108</v>
+        <v>620.5236483153982</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.202545866449</v>
+        <v>1333.115048127636</v>
       </c>
       <c r="M41" t="n">
-        <v>1830.521136858203</v>
+        <v>1871.077782547768</v>
       </c>
       <c r="N41" t="n">
-        <v>2583.702153496821</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O41" t="n">
-        <v>3227.333009913926</v>
+        <v>3267.889655603491</v>
       </c>
       <c r="P41" t="n">
-        <v>3756.489707833077</v>
+        <v>3797.046353522642</v>
       </c>
       <c r="Q41" t="n">
-        <v>4077.650714628369</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R41" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S41" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T41" t="n">
-        <v>3891.393352558789</v>
+        <v>3891.39335255879</v>
       </c>
       <c r="U41" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W41" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X41" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y41" t="n">
         <v>2425.838813156729</v>
@@ -7488,28 +7488,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J42" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K42" t="n">
-        <v>730.9832610342906</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L42" t="n">
-        <v>1392.071432953579</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="M42" t="n">
-        <v>1749.449359010245</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="N42" t="n">
-        <v>1749.449359010245</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="O42" t="n">
-        <v>1749.449359010245</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="P42" t="n">
-        <v>1749.449359010245</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q42" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R42" t="n">
         <v>2128.853343056859</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578624</v>
       </c>
       <c r="C43" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695264</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423837</v>
+        <v>514.426101642384</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606508</v>
+        <v>418.852062260651</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G43" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966808</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I43" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L43" t="n">
-        <v>703.0058463514383</v>
+        <v>703.0058463514397</v>
       </c>
       <c r="M43" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704457</v>
       </c>
       <c r="N43" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O43" t="n">
-        <v>1724.779017250227</v>
+        <v>1724.779017250228</v>
       </c>
       <c r="P43" t="n">
-        <v>1994.491031412363</v>
+        <v>1994.491031412364</v>
       </c>
       <c r="Q43" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127399</v>
       </c>
       <c r="R43" t="n">
-        <v>2104.119692552745</v>
+        <v>2104.119692552746</v>
       </c>
       <c r="S43" t="n">
         <v>1983.064700182603</v>
@@ -7600,7 +7600,7 @@
         <v>1808.852736909253</v>
       </c>
       <c r="U43" t="n">
-        <v>1591.391365205324</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V43" t="n">
         <v>1382.842395894794</v>
@@ -7609,10 +7609,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X43" t="n">
-        <v>996.1024207632465</v>
+        <v>996.102420763247</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019593</v>
       </c>
     </row>
     <row r="44">
@@ -7661,13 +7661,13 @@
         <v>3116.800127225762</v>
       </c>
       <c r="O44" t="n">
-        <v>3589.050662398783</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P44" t="n">
-        <v>4118.207360317934</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q44" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R44" t="n">
         <v>4118.207360317934</v>
@@ -7679,7 +7679,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V44" t="n">
         <v>3415.168857654675</v>
@@ -7728,22 +7728,22 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K45" t="n">
-        <v>202.1021881031461</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L45" t="n">
-        <v>863.1903600224343</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="M45" t="n">
-        <v>863.1903600224343</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="N45" t="n">
-        <v>863.1903600224343</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="O45" t="n">
-        <v>1567.147450568329</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="P45" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q45" t="n">
         <v>2128.853343056859</v>
@@ -7804,19 +7804,19 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.483270524093</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588546</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M46" t="n">
         <v>1056.306476704456</v>
       </c>
       <c r="N46" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O46" t="n">
         <v>1724.779017250227</v>
@@ -7831,7 +7831,7 @@
         <v>2104.119692552745</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T46" t="n">
         <v>1808.852736909252</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.14369925915724</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7988,19 +7988,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>109.0527983622323</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0098835516324</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>110.4694712067335</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8055,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>67.50974640561299</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>71.07974292865305</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.51272643068802</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>75.82030703125471</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>69.07047748491613</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>56.54400412051395</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>73.08505042462934</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.89500599884562</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>304.6710456564521</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5372299489272</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>274.6831369348459</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.3812587222961</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,31 +8292,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>527.2265162238739</v>
       </c>
       <c r="M6" t="n">
-        <v>288.9117380615616</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>80.43301364057193</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>289.0989333231441</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>285.6070893259479</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>287.6123968219242</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315635</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>287.4223523961405</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.60663814212201</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8453,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>101.9299556837397</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>272.2288842682561</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>266.9965351298663</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8693,13 +8693,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>429.5302788543775</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>315.2183947057874</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8772,7 +8772,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>547.3465691139345</v>
+        <v>403.6584902681118</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8781,10 +8781,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8927,7 +8927,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>246.9874333908119</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8942,13 +8942,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>455.0396427506486</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5303479970833</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>309.7035470141065</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9173,7 +9173,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>612.9377049657057</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9182,7 +9182,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
         <v>87.31214281472352</v>
@@ -9240,16 +9240,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9258,13 +9258,13 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>231.5212686203674</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>326.0955061393324</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9413,16 +9413,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>398.5438506541158</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>548.7963290415026</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9495,13 +9495,13 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>415.2474391004463</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>338.9676156316031</v>
+        <v>857.0773715762275</v>
       </c>
       <c r="N23" t="n">
         <v>853.701196452193</v>
@@ -9656,10 +9656,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>841.9067396726142</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9957,10 +9957,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>517.4884687476416</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -10188,16 +10188,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>517.4884687476416</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>713.698690859688</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10361,13 +10361,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O32" t="n">
-        <v>739.3408671483234</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10428,28 +10428,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>713.698690859688</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>706.0405928054579</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10598,7 +10598,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
-        <v>743.321953824879</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P35" t="n">
         <v>628.1510783507341</v>
@@ -10665,28 +10665,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>713.6986908596879</v>
       </c>
       <c r="N36" t="n">
-        <v>741.5205988334645</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10832,13 +10832,13 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>849.7201097756374</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10899,28 +10899,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>560.7155587704844</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>94.24904359250789</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>636.6869258915215</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11081,7 +11081,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11145,7 +11145,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>418.55208783606</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11154,13 +11154,13 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>570.2105182247934</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>176.7732988419764</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>286.1956682265944</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>190.4694114506606</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>216.9690424221581</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>150.1989389421833</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D13" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.4639702295878</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627851</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.590536241671</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579021</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042746</v>
+        <v>48.79622075343369</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.7047845890045</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>244.3463955914164</v>
       </c>
       <c r="V13" t="n">
-        <v>38.52595523308545</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>286.1956682265931</v>
       </c>
       <c r="H14" t="n">
-        <v>270.2785679976323</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>137.1598858751863</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>150.1989389421833</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293922</v>
+        <v>122.2759278423984</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295878</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H16" t="n">
-        <v>110.590536241671</v>
+        <v>83.45616535025462</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579021</v>
+        <v>79.55881504879645</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042746</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.007006037962</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.57599195790863</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>103.1962166272922</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>23.85880687693599</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.8744055606851</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>23.85880687693569</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.1962166272922</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.8744055606851</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>78.38855069072417</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>29.71650953832745</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>129.8243688358619</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
@@ -24610,13 +24610,13 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>15.42388141957377</v>
       </c>
       <c r="I28" t="n">
         <v>85.68364371037912</v>
@@ -24649,7 +24649,7 @@
         <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
-        <v>45.44272713247912</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>203.5383895929512</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>179.5736094392486</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1036831.90279404</v>
+        <v>1064786.526152074</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1049233.750358697</v>
+        <v>1064786.526152074</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1058414.302262578</v>
+        <v>1064786.526152074</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1005222.75736667</v>
+        <v>1019929.153577444</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1005222.75736667</v>
+        <v>1019929.153577444</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1080781.736230254</v>
+        <v>1073003.801394395</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1080781.736230254</v>
+        <v>1073003.801394395</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1080781.736230254</v>
+        <v>1073003.801394395</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1080781.736230254</v>
+        <v>1085068.059332156</v>
       </c>
     </row>
     <row r="13">
@@ -26314,25 +26314,25 @@
         <v>114017.6751227199</v>
       </c>
       <c r="C2" t="n">
-        <v>114017.6751227198</v>
+        <v>114017.6751227199</v>
       </c>
       <c r="D2" t="n">
         <v>114017.6751227199</v>
       </c>
       <c r="E2" t="n">
-        <v>105622.2330267659</v>
+        <v>107121.1884298751</v>
       </c>
       <c r="F2" t="n">
-        <v>105622.2330267659</v>
+        <v>107121.1884298751</v>
       </c>
       <c r="G2" t="n">
-        <v>114017.6751227198</v>
+        <v>113018.3715206472</v>
       </c>
       <c r="H2" t="n">
-        <v>114017.6751227198</v>
+        <v>113018.3715206472</v>
       </c>
       <c r="I2" t="n">
-        <v>114017.6751227197</v>
+        <v>113018.3715206472</v>
       </c>
       <c r="J2" t="n">
         <v>110494.6066646203</v>
@@ -26341,13 +26341,13 @@
         <v>110494.6066646203</v>
       </c>
       <c r="L2" t="n">
+        <v>114017.6751227197</v>
+      </c>
+      <c r="M2" t="n">
         <v>114017.6751227198</v>
       </c>
-      <c r="M2" t="n">
-        <v>114017.6751227197</v>
-      </c>
       <c r="N2" t="n">
-        <v>114017.6751227197</v>
+        <v>114017.6751227198</v>
       </c>
       <c r="O2" t="n">
         <v>114017.6751227197</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.49696633367</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.69823741161</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557333</v>
+        <v>191541.2671994905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321699</v>
+        <v>15263.768972085</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231429</v>
+        <v>170419.5815951231</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.47408757897</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.86860860727</v>
+        <v>43411.34198497309</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302946</v>
+        <v>102190.6169864198</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.10250785341</v>
+        <v>8335.384408985352</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321752.504628228</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>264963.3519320987</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
-        <v>222924.7958874308</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="E4" t="n">
-        <v>93213.02207045106</v>
+        <v>92529.97658549598</v>
       </c>
       <c r="F4" t="n">
-        <v>93213.02207045106</v>
+        <v>92529.97658549598</v>
       </c>
       <c r="G4" t="n">
-        <v>120662.0345541046</v>
+        <v>111810.8971644149</v>
       </c>
       <c r="H4" t="n">
-        <v>120662.0345541046</v>
+        <v>111810.8971644149</v>
       </c>
       <c r="I4" t="n">
-        <v>120662.0345541046</v>
+        <v>111810.897164415</v>
       </c>
       <c r="J4" t="n">
         <v>89457.14057469089</v>
       </c>
       <c r="K4" t="n">
-        <v>89457.14057469089</v>
+        <v>89457.1405746909</v>
       </c>
       <c r="L4" t="n">
-        <v>120662.0345541046</v>
+        <v>101034.5834126693</v>
       </c>
       <c r="M4" t="n">
         <v>120662.0345541046</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284716</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047764</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047764</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262041</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262041</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262041</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,7 +26497,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>68034.62130334972</v>
+        <v>76303.07967139044</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248021.8970958342</v>
+        <v>-320052.7211046849</v>
       </c>
       <c r="C6" t="n">
-        <v>-267946.6989985597</v>
+        <v>-145097.2112115708</v>
       </c>
       <c r="D6" t="n">
-        <v>-215585.7080109357</v>
+        <v>-145097.2112115708</v>
       </c>
       <c r="E6" t="n">
-        <v>-274269.0489441926</v>
+        <v>-244985.4967840582</v>
       </c>
       <c r="F6" t="n">
-        <v>-53341.88078845924</v>
+        <v>-53444.22958456777</v>
       </c>
       <c r="G6" t="n">
-        <v>-96409.03160795155</v>
+        <v>-83611.50281421702</v>
       </c>
       <c r="H6" t="n">
-        <v>-74678.98073473449</v>
+        <v>-68347.73384213202</v>
       </c>
       <c r="I6" t="n">
-        <v>-74678.98073473462</v>
+        <v>-68347.73384213207</v>
       </c>
       <c r="J6" t="n">
-        <v>-94159.78734924973</v>
+        <v>-222777.60183146</v>
       </c>
       <c r="K6" t="n">
-        <v>-107520.1647745144</v>
+        <v>-52358.02023633687</v>
       </c>
       <c r="L6" t="n">
-        <v>-130329.8493433418</v>
+        <v>-106731.3299463132</v>
       </c>
       <c r="M6" t="n">
-        <v>-234019.7841650292</v>
+        <v>-176869.5977211543</v>
       </c>
       <c r="N6" t="n">
-        <v>-74678.98073473462</v>
+        <v>-74678.98073473453</v>
       </c>
       <c r="O6" t="n">
-        <v>-76548.08324258804</v>
+        <v>-83014.36514371993</v>
       </c>
       <c r="P6" t="n">
-        <v>-74678.98073473456</v>
+        <v>-74678.98073473461</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="F2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="J2" t="n">
         <v>29.49894172633799</v>
@@ -26722,7 +26722,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="O2" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="P2" t="n">
         <v>64.68340799244812</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>231.3474543231441</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152124</v>
+        <v>19.07971121510624</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123175</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763136</v>
+        <v>54.26417748121636</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123169</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>214.5273463972948</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270728</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085195</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791506</v>
+        <v>619.4837152242654</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972948</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437377141</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>410.0681248552181</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152124</v>
+        <v>19.07971121510624</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816762</v>
+        <v>10.41923051123175</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972948</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270728</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>392.4011227157451</v>
+        <v>77.17043497020825</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.1071983955415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.720997540112926</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.09000186098496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.9283372490126</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>196.7592606758085</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0026014042546</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27546,16 +27546,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.2912727167486</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>98.36247751086781</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27594,16 +27594,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>19.93499131778088</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.6731905640349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>18.93140489256149</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>173.293546942952</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>132.2440640298983</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>114.99172479374</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>52.55051755119477</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>6.27656796985093</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27789,10 +27789,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>149.748916762765</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>48.62271165619296</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>39.79943328672914</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.3068191221789</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>106.746398078511</v>
       </c>
       <c r="X8" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>54.94950220363008</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>40.68772050506297</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>177.8444843222612</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="C14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="D14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="E14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="F14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="T14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="U14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="V14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="X14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="D16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="G16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="H16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="I16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="K16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="L16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="M16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="N16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="O16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="P16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="R16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="T16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="V16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="W16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="X16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.62377038792065</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302689</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244788</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302872</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244822</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244811</v>
+        <v>54.70348160302689</v>
       </c>
     </row>
     <row r="26">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>64.68340799244811</v>
@@ -29755,7 +29755,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244811</v>
+        <v>54.38367794038209</v>
       </c>
       <c r="F32" t="n">
         <v>64.68340799244811</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30177,7 +30177,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="N37" t="n">
-        <v>64.68340799244771</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O37" t="n">
         <v>64.68340799244812</v>
@@ -30408,7 +30408,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="L40" t="n">
-        <v>64.68340799244777</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M40" t="n">
         <v>64.68340799244812</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="C41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="D41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="E41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="T41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="U41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="V41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="W41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="X41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="Y41" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="C43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="D43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="E43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="J43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="K43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="L43" t="n">
-        <v>64.68340799244777</v>
+        <v>64.68340799244925</v>
       </c>
       <c r="M43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="N43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="O43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="P43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="R43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="S43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="T43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="U43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="V43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="W43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="X43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244807</v>
       </c>
     </row>
     <row r="44">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.8201079258493</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34708,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.14050760561297</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8201079258493</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P2" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.14050760561297</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>16.8201079258493</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>1.915710226612444</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>16.8201079258493</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>231.3474543231441</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>231.3474543231441</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>181.0337736539618</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>231.3474543231441</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>471.1119924130248</v>
       </c>
       <c r="M6" t="n">
-        <v>231.3474543231441</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>27.23962024682193</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>231.3474543231441</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>231.3474543231441</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>231.3474543231441</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3474543231441</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>231.3474543231441</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
         <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.24711248219644</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>9.017664927120396</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>216.4031014836407</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>390.1527797502169</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35413,13 +35413,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>334.0448807915327</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>222.306103949168</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35492,7 +35492,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2320453030854</v>
+        <v>347.5439664572627</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.74564177992741</v>
+        <v>49.84856776692118</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336156</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031334</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O13" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611269</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500303</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943722</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>157.8510437175948</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35662,13 +35662,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>361.3902794697644</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992741</v>
+        <v>49.84856776692118</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336156</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031334</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O16" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611269</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500303</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943722</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>236.3799556807986</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35893,7 +35893,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>520.0254142090864</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
@@ -35902,7 +35902,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>177.2616336175636</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202742</v>
       </c>
       <c r="K19" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487218</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182396</v>
       </c>
       <c r="M19" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994847</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749969</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762331</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521303</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964722</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>252.7719148060245</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36133,16 +36133,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>305.3540750283327</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>360.9878040976426</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202742</v>
       </c>
       <c r="K22" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487218</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182396</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994847</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749969</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>316.8859162762331</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521303</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964722</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
-        <v>245.6773911745577</v>
+        <v>763.787147119182</v>
       </c>
       <c r="N23" t="n">
         <v>760.7889056955737</v>
@@ -36376,10 +36376,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>788.7133462788643</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202742</v>
       </c>
       <c r="K25" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487218</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182396</v>
       </c>
       <c r="M25" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994847</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749969</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656544</v>
+        <v>316.8859162762331</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521303</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964722</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>461.3739449367926</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37081,13 +37081,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
-        <v>646.1510915225402</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>648.2891138054579</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37318,7 +37318,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
-        <v>650.1321781990958</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P35" t="n">
         <v>534.50171506985</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>656.1344071212704</v>
       </c>
       <c r="N36" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>356.869323588906</v>
       </c>
       <c r="N37" t="n">
-        <v>348.3589457644177</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O37" t="n">
         <v>326.8658426656543</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37552,13 +37552,13 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>756.8078190190181</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>504.6010349596354</v>
+        <v>491.2320453030854</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>220.796870338143</v>
       </c>
       <c r="L40" t="n">
-        <v>327.2057315076605</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M40" t="n">
         <v>356.869323588906</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.112653919290765</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>543.396701434476</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37801,7 +37801,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37865,7 +37865,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>360.9878040976426</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144859</v>
       </c>
       <c r="K43" t="n">
         <v>220.796870338143</v>
       </c>
       <c r="L43" t="n">
-        <v>327.2057315076605</v>
+        <v>327.2057315076619</v>
       </c>
       <c r="M43" t="n">
-        <v>356.869323588906</v>
+        <v>356.8693235889059</v>
       </c>
       <c r="N43" t="n">
-        <v>348.3589457644181</v>
+        <v>348.358945764418</v>
       </c>
       <c r="O43" t="n">
         <v>326.8658426656543</v>
@@ -38029,16 +38029,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>477.0207425990102</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>120.947516057361</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
